--- a/02_MasterWifoMannheim/99_Backup/Course166.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course166.xlsx
@@ -1,142 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2B59D2BFD300D369A3B9231159E5A0B37047F923" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{032756E0-1646-4F69-B37A-D2AD998970C8}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 662 Business Analytics: Modeling and Optimization</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This course introduces mathematical modeling approaches for planning and scheduling of operations. integer linear programming models. optimization models are implemented and solved using standard software. heuristic techniques to cope with high complexity are introduced and implemented. the course the students will work on several case studies and assignments (individual and in groups).</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students learn how to formulate production planning and scheduling problems as mixed-integer linear models and how to implement them in standard software to derive optimal plans/schedules. The students also learn to deal with the complexity of real-world problems (e.g., via aggregation, relaxation, and decomposition techniques) and how to perform sensitivity analyses in order to get useful managerial insights.</t>
-  </si>
-  <si>
-    <t>PrerequisitesFormal</t>
-  </si>
-  <si>
-    <t>Obligatory registration:</t>
-  </si>
-  <si>
-    <t>Further information on registration: Website of the chair / “Student information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture / Exercise 4 8</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Assignments and presentations (70%), Written exam or oral exam (30%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Raik Stolletz</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester (irregular)</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Benötigte Kurse</t>
-  </si>
-  <si>
-    <t>OPM 561</t>
-  </si>
-  <si>
-    <t>OPM 561, Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,148 +420,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OPM 662 Business Analytics: Modeling and Optimization</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This course introduces mathematical modeling approaches for planning and scheduling of operations. integer linear programming models. optimization models are implemented and solved using standard software. heuristic techniques to cope with high complexity are introduced and implemented. the course the students will work on several case studies and assignments (individual and in groups).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students learn how to formulate production planning and scheduling problems as mixed-integer linear models and how to implement them in standard software to derive optimal plans/schedules. The students also learn to deal with the complexity of real-world problems (e.g., via aggregation, relaxation, and decomposition techniques) and how to perform sensitivity analyses in order to get useful managerial insights.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Benötigte Kurse</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OPM 561</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PrerequisitesFormal</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OPM 561, Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registration:</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Further information on registration: Website of the chair / “Student information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture / Exercise 4 8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Assignments and presentations (70%), Written exam or oral exam (30%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Raik Stolletz</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
